--- a/ONCHO/Impact Assessments/Togo/2023 February/tg_oncho_stop_202304_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Togo/2023 February/tg_oncho_stop_202304_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Togo\2023 February\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5183FCC-F966-4C85-82F9-33886EC3201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FC1234-D3DE-440D-B4E7-0D439DF2385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="454">
   <si>
     <t>type</t>
   </si>
@@ -1536,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1593,8 +1593,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1605,8 +1603,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2241,11 +2239,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A268" sqref="A268:XFD268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2260,22 +2258,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>442</v>
       </c>
       <c r="G1" s="2"/>
@@ -2289,13 +2287,13 @@
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="23"/>
@@ -2303,13 +2301,13 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23"/>
@@ -2317,13 +2315,13 @@
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="23"/>
@@ -2331,21 +2329,21 @@
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>436</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="23"/>
@@ -2353,13 +2351,13 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>436</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="23"/>
@@ -2367,13 +2365,13 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="23"/>
@@ -2381,21 +2379,21 @@
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -2405,13 +2403,13 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -2421,13 +2419,13 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -2437,13 +2435,13 @@
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -2453,13 +2451,13 @@
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="23" t="s">
@@ -2469,13 +2467,13 @@
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -2485,13 +2483,13 @@
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -2501,13 +2499,13 @@
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -2517,13 +2515,13 @@
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="23" t="s">
@@ -2533,13 +2531,13 @@
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -2549,13 +2547,13 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="23" t="s">
@@ -2565,13 +2563,13 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -2581,13 +2579,13 @@
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="23" t="s">
@@ -2597,21 +2595,21 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="26"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D25" s="23"/>
@@ -2621,13 +2619,13 @@
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D26" s="23"/>
@@ -2637,13 +2635,13 @@
       <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="23"/>
@@ -2653,13 +2651,13 @@
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D28" s="23"/>
@@ -2669,13 +2667,13 @@
       <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D29" s="23"/>
@@ -2685,13 +2683,13 @@
       <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="25" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="23"/>
@@ -2701,13 +2699,13 @@
       <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="23"/>
@@ -2717,13 +2715,13 @@
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D32" s="23"/>
@@ -2733,13 +2731,13 @@
       <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="23"/>
@@ -2749,13 +2747,13 @@
       <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="23"/>
@@ -2765,7 +2763,7 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -2781,7 +2779,7 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -2797,7 +2795,7 @@
       <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -2813,7 +2811,7 @@
       <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -2829,7 +2827,7 @@
       <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -2845,7 +2843,7 @@
       <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -2861,7 +2859,7 @@
       <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -2877,7 +2875,7 @@
       <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -2893,7 +2891,7 @@
       <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -2909,7 +2907,7 @@
       <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -2925,7 +2923,7 @@
       <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -2941,7 +2939,7 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -2957,7 +2955,7 @@
       <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -2973,7 +2971,7 @@
       <c r="F47" s="23"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -2989,7 +2987,7 @@
       <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -3005,7 +3003,7 @@
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -3021,7 +3019,7 @@
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3037,7 +3035,7 @@
       <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -3053,7 +3051,7 @@
       <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -3069,7 +3067,7 @@
       <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -3085,7 +3083,7 @@
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -3101,7 +3099,7 @@
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -3117,7 +3115,7 @@
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -3133,7 +3131,7 @@
       <c r="F57" s="23"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B58" s="23" t="s">
@@ -3149,7 +3147,7 @@
       <c r="F58" s="23"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3165,7 +3163,7 @@
       <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -3181,7 +3179,7 @@
       <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B61" s="23" t="s">
@@ -3197,7 +3195,7 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B62" s="23" t="s">
@@ -3213,7 +3211,7 @@
       <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3229,7 +3227,7 @@
       <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3245,7 +3243,7 @@
       <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B65" s="23" t="s">
@@ -3261,7 +3259,7 @@
       <c r="F65" s="23"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B66" s="23" t="s">
@@ -3277,7 +3275,7 @@
       <c r="F66" s="23"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B67" s="23" t="s">
@@ -3293,7 +3291,7 @@
       <c r="F67" s="23"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B68" s="23" t="s">
@@ -3309,7 +3307,7 @@
       <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B69" s="23" t="s">
@@ -3325,7 +3323,7 @@
       <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B70" s="23" t="s">
@@ -3341,7 +3339,7 @@
       <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B71" s="23" t="s">
@@ -3357,7 +3355,7 @@
       <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B72" s="23" t="s">
@@ -3373,7 +3371,7 @@
       <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -3389,7 +3387,7 @@
       <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -3405,7 +3403,7 @@
       <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B75" s="23" t="s">
@@ -3421,7 +3419,7 @@
       <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B76" s="23" t="s">
@@ -3437,7 +3435,7 @@
       <c r="F76" s="23"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B77" s="23" t="s">
@@ -3453,7 +3451,7 @@
       <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B78" s="23" t="s">
@@ -3469,7 +3467,7 @@
       <c r="F78" s="23"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B79" s="23" t="s">
@@ -3485,7 +3483,7 @@
       <c r="F79" s="23"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -3501,7 +3499,7 @@
       <c r="F80" s="23"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -3517,7 +3515,7 @@
       <c r="F81" s="23"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -3533,7 +3531,7 @@
       <c r="F82" s="23"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -3549,7 +3547,7 @@
       <c r="F83" s="23"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B84" s="23" t="s">
@@ -3565,7 +3563,7 @@
       <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B85" s="23" t="s">
@@ -3581,7 +3579,7 @@
       <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B86" s="23" t="s">
@@ -3597,7 +3595,7 @@
       <c r="F86" s="23"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -3613,7 +3611,7 @@
       <c r="F87" s="23"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B88" s="23" t="s">
@@ -3629,7 +3627,7 @@
       <c r="F88" s="23"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -3645,7 +3643,7 @@
       <c r="F89" s="23"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -3661,7 +3659,7 @@
       <c r="F90" s="23"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B91" s="23" t="s">
@@ -3677,7 +3675,7 @@
       <c r="F91" s="23"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B92" s="23" t="s">
@@ -3693,7 +3691,7 @@
       <c r="F92" s="23"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -3709,7 +3707,7 @@
       <c r="F93" s="23"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B94" s="23" t="s">
@@ -3725,7 +3723,7 @@
       <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B95" s="23" t="s">
@@ -3741,7 +3739,7 @@
       <c r="F95" s="23"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -3757,7 +3755,7 @@
       <c r="F96" s="23"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -3773,7 +3771,7 @@
       <c r="F97" s="23"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B98" s="23" t="s">
@@ -3789,7 +3787,7 @@
       <c r="F98" s="23"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B99" s="23" t="s">
@@ -3805,7 +3803,7 @@
       <c r="F99" s="23"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B100" s="23" t="s">
@@ -3821,7 +3819,7 @@
       <c r="F100" s="23"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -3837,7 +3835,7 @@
       <c r="F101" s="23"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B102" s="23" t="s">
@@ -3853,7 +3851,7 @@
       <c r="F102" s="23"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -3869,7 +3867,7 @@
       <c r="F103" s="23"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B104" s="23" t="s">
@@ -3885,7 +3883,7 @@
       <c r="F104" s="23"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -3901,7 +3899,7 @@
       <c r="F105" s="23"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B106" s="23" t="s">
@@ -3917,7 +3915,7 @@
       <c r="F106" s="23"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B107" s="23" t="s">
@@ -3933,7 +3931,7 @@
       <c r="F107" s="23"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B108" s="23" t="s">
@@ -3949,7 +3947,7 @@
       <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -3965,7 +3963,7 @@
       <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B110" s="23" t="s">
@@ -3981,7 +3979,7 @@
       <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B111" s="23" t="s">
@@ -3997,7 +3995,7 @@
       <c r="F111" s="23"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B112" s="23" t="s">
@@ -4013,7 +4011,7 @@
       <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B113" s="23" t="s">
@@ -4029,7 +4027,7 @@
       <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="29" t="s">
+      <c r="A114" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -4045,7 +4043,7 @@
       <c r="F114" s="23"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B115" s="23" t="s">
@@ -4061,7 +4059,7 @@
       <c r="F115" s="23"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B116" s="23" t="s">
@@ -4077,7 +4075,7 @@
       <c r="F116" s="23"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B117" s="23" t="s">
@@ -4093,7 +4091,7 @@
       <c r="F117" s="23"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B118" s="23" t="s">
@@ -4109,7 +4107,7 @@
       <c r="F118" s="23"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B119" s="23" t="s">
@@ -4125,7 +4123,7 @@
       <c r="F119" s="23"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -4141,7 +4139,7 @@
       <c r="F120" s="23"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B121" s="23" t="s">
@@ -4157,7 +4155,7 @@
       <c r="F121" s="23"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B122" s="23" t="s">
@@ -4173,7 +4171,7 @@
       <c r="F122" s="23"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B123" s="23" t="s">
@@ -4189,7 +4187,7 @@
       <c r="F123" s="23"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B124" s="23" t="s">
@@ -4205,7 +4203,7 @@
       <c r="F124" s="23"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B125" s="23" t="s">
@@ -4221,7 +4219,7 @@
       <c r="F125" s="23"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B126" s="23" t="s">
@@ -4237,7 +4235,7 @@
       <c r="F126" s="23"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B127" s="23" t="s">
@@ -4253,7 +4251,7 @@
       <c r="F127" s="23"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B128" s="23" t="s">
@@ -4269,7 +4267,7 @@
       <c r="F128" s="23"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B129" s="23" t="s">
@@ -4285,7 +4283,7 @@
       <c r="F129" s="23"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B130" s="23" t="s">
@@ -4301,7 +4299,7 @@
       <c r="F130" s="23"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B131" s="23" t="s">
@@ -4317,7 +4315,7 @@
       <c r="F131" s="23"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B132" s="23" t="s">
@@ -4333,7 +4331,7 @@
       <c r="F132" s="23"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B133" s="23" t="s">
@@ -4349,7 +4347,7 @@
       <c r="F133" s="23"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B134" s="23" t="s">
@@ -4365,7 +4363,7 @@
       <c r="F134" s="23"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B135" s="23" t="s">
@@ -4381,7 +4379,7 @@
       <c r="F135" s="23"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B136" s="23" t="s">
@@ -4397,7 +4395,7 @@
       <c r="F136" s="23"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -4413,7 +4411,7 @@
       <c r="F137" s="23"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B138" s="23" t="s">
@@ -4429,7 +4427,7 @@
       <c r="F138" s="23"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B139" s="23" t="s">
@@ -4445,7 +4443,7 @@
       <c r="F139" s="23"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="29" t="s">
+      <c r="A140" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B140" s="23" t="s">
@@ -4461,7 +4459,7 @@
       <c r="F140" s="23"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="29" t="s">
+      <c r="A141" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B141" s="23" t="s">
@@ -4477,7 +4475,7 @@
       <c r="F141" s="23"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B142" s="23" t="s">
@@ -4493,7 +4491,7 @@
       <c r="F142" s="23"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="29" t="s">
+      <c r="A143" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B143" s="23" t="s">
@@ -4509,7 +4507,7 @@
       <c r="F143" s="23"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="29" t="s">
+      <c r="A144" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B144" s="23" t="s">
@@ -4525,7 +4523,7 @@
       <c r="F144" s="23"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="29" t="s">
+      <c r="A145" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B145" s="23" t="s">
@@ -4541,7 +4539,7 @@
       <c r="F145" s="23"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="29" t="s">
+      <c r="A146" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B146" s="23" t="s">
@@ -4557,7 +4555,7 @@
       <c r="F146" s="23"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="29" t="s">
+      <c r="A147" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B147" s="23" t="s">
@@ -4573,7 +4571,7 @@
       <c r="F147" s="23"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="29" t="s">
+      <c r="A148" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B148" s="23" t="s">
@@ -4589,7 +4587,7 @@
       <c r="F148" s="23"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="29" t="s">
+      <c r="A149" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B149" s="23" t="s">
@@ -4605,7 +4603,7 @@
       <c r="F149" s="23"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="29" t="s">
+      <c r="A150" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B150" s="23" t="s">
@@ -4621,7 +4619,7 @@
       <c r="F150" s="23"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B151" s="23" t="s">
@@ -4637,7 +4635,7 @@
       <c r="F151" s="23"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B152" s="23" t="s">
@@ -4653,7 +4651,7 @@
       <c r="F152" s="23"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B153" s="23" t="s">
@@ -4669,7 +4667,7 @@
       <c r="F153" s="23"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B154" s="23" t="s">
@@ -4685,7 +4683,7 @@
       <c r="F154" s="23"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="29" t="s">
+      <c r="A155" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B155" s="23" t="s">
@@ -4701,7 +4699,7 @@
       <c r="F155" s="23"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="29" t="s">
+      <c r="A156" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B156" s="23" t="s">
@@ -4717,7 +4715,7 @@
       <c r="F156" s="23"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B157" s="23" t="s">
@@ -4733,7 +4731,7 @@
       <c r="F157" s="23"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="29" t="s">
+      <c r="A158" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B158" s="23" t="s">
@@ -4749,7 +4747,7 @@
       <c r="F158" s="23"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="29" t="s">
+      <c r="A159" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B159" s="23" t="s">
@@ -4765,7 +4763,7 @@
       <c r="F159" s="23"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="29" t="s">
+      <c r="A160" s="27" t="s">
         <v>442</v>
       </c>
       <c r="B160" s="23" t="s">
@@ -4789,7 +4787,7 @@
       <c r="F161" s="23"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B162" s="23" t="s">
@@ -4805,7 +4803,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="32" t="s">
+      <c r="A163" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B163" s="23" t="s">
@@ -4821,7 +4819,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B164" s="23" t="s">
@@ -4837,7 +4835,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B165" s="23" t="s">
@@ -4853,7 +4851,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B166" s="23" t="s">
@@ -4869,7 +4867,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="32" t="s">
+      <c r="A167" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B167" s="23" t="s">
@@ -4885,7 +4883,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B168" s="23" t="s">
@@ -4901,7 +4899,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B169" s="23" t="s">
@@ -4917,7 +4915,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B170" s="23" t="s">
@@ -4933,7 +4931,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B171" s="23" t="s">
@@ -4949,7 +4947,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B172" s="23" t="s">
@@ -4965,7 +4963,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B173" s="23" t="s">
@@ -4981,7 +4979,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B174" s="23" t="s">
@@ -4997,7 +4995,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B175" s="23" t="s">
@@ -5013,7 +5011,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B176" s="23" t="s">
@@ -5029,7 +5027,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="32" t="s">
+      <c r="A177" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B177" s="23" t="s">
@@ -5045,7 +5043,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="32" t="s">
+      <c r="A178" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B178" s="23" t="s">
@@ -5061,7 +5059,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B179" s="23" t="s">
@@ -5077,7 +5075,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="32" t="s">
+      <c r="A180" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B180" s="23" t="s">
@@ -5093,7 +5091,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B181" s="23" t="s">
@@ -5109,7 +5107,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="32" t="s">
+      <c r="A182" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B182" s="23" t="s">
@@ -5125,7 +5123,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="32" t="s">
+      <c r="A183" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B183" s="23" t="s">
@@ -5141,7 +5139,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B184" s="23" t="s">
@@ -5157,7 +5155,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="32" t="s">
+      <c r="A185" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B185" s="23" t="s">
@@ -5173,7 +5171,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="32" t="s">
+      <c r="A186" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B186" s="23" t="s">
@@ -5189,7 +5187,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="32" t="s">
+      <c r="A187" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B187" s="23" t="s">
@@ -5205,7 +5203,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="32" t="s">
+      <c r="A188" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B188" s="23" t="s">
@@ -5221,7 +5219,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B189" s="23" t="s">
@@ -5237,7 +5235,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B190" s="23" t="s">
@@ -5253,7 +5251,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B191" s="23" t="s">
@@ -5269,7 +5267,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="32" t="s">
+      <c r="A192" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B192" s="23" t="s">
@@ -5285,7 +5283,7 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B193" s="23" t="s">
@@ -5301,7 +5299,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B194" s="23" t="s">
@@ -5317,7 +5315,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="32" t="s">
+      <c r="A195" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B195" s="23" t="s">
@@ -5333,7 +5331,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B196" s="23" t="s">
@@ -5349,7 +5347,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B197" s="23" t="s">
@@ -5365,7 +5363,7 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="32" t="s">
+      <c r="A198" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B198" s="23" t="s">
@@ -5381,7 +5379,7 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="32" t="s">
+      <c r="A199" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B199" s="23" t="s">
@@ -5397,7 +5395,7 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B200" s="23" t="s">
@@ -5413,7 +5411,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="32" t="s">
+      <c r="A201" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B201" s="23" t="s">
@@ -5429,7 +5427,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="32" t="s">
+      <c r="A202" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B202" s="23" t="s">
@@ -5445,7 +5443,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="32" t="s">
+      <c r="A203" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B203" s="23" t="s">
@@ -5461,7 +5459,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="32" t="s">
+      <c r="A204" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B204" s="23" t="s">
@@ -5477,7 +5475,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="32" t="s">
+      <c r="A205" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B205" s="23" t="s">
@@ -5493,7 +5491,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="32" t="s">
+      <c r="A206" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B206" s="23" t="s">
@@ -5509,7 +5507,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B207" s="23" t="s">
@@ -5525,7 +5523,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="32" t="s">
+      <c r="A208" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B208" s="23" t="s">
@@ -5541,7 +5539,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="32" t="s">
+      <c r="A209" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B209" s="23" t="s">
@@ -5557,7 +5555,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="32" t="s">
+      <c r="A210" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B210" s="23" t="s">
@@ -5573,7 +5571,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="32" t="s">
+      <c r="A211" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B211" s="23" t="s">
@@ -5589,7 +5587,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="32" t="s">
+      <c r="A212" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B212" s="23" t="s">
@@ -5605,7 +5603,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="32" t="s">
+      <c r="A213" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B213" s="23" t="s">
@@ -5621,7 +5619,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="32" t="s">
+      <c r="A214" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B214" s="23" t="s">
@@ -5637,7 +5635,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="32" t="s">
+      <c r="A215" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B215" s="23" t="s">
@@ -5653,7 +5651,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="32" t="s">
+      <c r="A216" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B216" s="23" t="s">
@@ -5669,7 +5667,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="32" t="s">
+      <c r="A217" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B217" s="23" t="s">
@@ -5685,7 +5683,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B218" s="23" t="s">
@@ -5701,7 +5699,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="32" t="s">
+      <c r="A219" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B219" s="23" t="s">
@@ -5717,7 +5715,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="32" t="s">
+      <c r="A220" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B220" s="23" t="s">
@@ -5733,7 +5731,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="32" t="s">
+      <c r="A221" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B221" s="23" t="s">
@@ -5749,7 +5747,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="32" t="s">
+      <c r="A222" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B222" s="23" t="s">
@@ -5765,7 +5763,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="32" t="s">
+      <c r="A223" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B223" s="23" t="s">
@@ -5781,7 +5779,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="32" t="s">
+      <c r="A224" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B224" s="23" t="s">
@@ -5797,7 +5795,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="32" t="s">
+      <c r="A225" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B225" s="23" t="s">
@@ -5813,7 +5811,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="32" t="s">
+      <c r="A226" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B226" s="23" t="s">
@@ -5829,7 +5827,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B227" s="23" t="s">
@@ -5845,7 +5843,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="32" t="s">
+      <c r="A228" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B228" s="23" t="s">
@@ -5861,7 +5859,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="32" t="s">
+      <c r="A229" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B229" s="23" t="s">
@@ -5877,7 +5875,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="32" t="s">
+      <c r="A230" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B230" s="23" t="s">
@@ -5893,7 +5891,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="32" t="s">
+      <c r="A231" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B231" s="23" t="s">
@@ -5909,7 +5907,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="32" t="s">
+      <c r="A232" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B232" s="23" t="s">
@@ -5925,7 +5923,7 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="32" t="s">
+      <c r="A233" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B233" s="23" t="s">
@@ -5941,7 +5939,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="32" t="s">
+      <c r="A234" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B234" s="23" t="s">
@@ -5957,7 +5955,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="32" t="s">
+      <c r="A235" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B235" s="23" t="s">
@@ -5973,7 +5971,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="32" t="s">
+      <c r="A236" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B236" s="23" t="s">
@@ -5989,7 +5987,7 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="32" t="s">
+      <c r="A237" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B237" s="23" t="s">
@@ -6005,7 +6003,7 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="32" t="s">
+      <c r="A238" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B238" s="23" t="s">
@@ -6021,7 +6019,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="32" t="s">
+      <c r="A239" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B239" s="23" t="s">
@@ -6037,7 +6035,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="32" t="s">
+      <c r="A240" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B240" s="23" t="s">
@@ -6053,7 +6051,7 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="32" t="s">
+      <c r="A241" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B241" s="23" t="s">
@@ -6069,7 +6067,7 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="32" t="s">
+      <c r="A242" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B242" s="23" t="s">
@@ -6085,7 +6083,7 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="32" t="s">
+      <c r="A243" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B243" s="23" t="s">
@@ -6101,7 +6099,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="32" t="s">
+      <c r="A244" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B244" s="23" t="s">
@@ -6117,7 +6115,7 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="32" t="s">
+      <c r="A245" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B245" s="23" t="s">
@@ -6133,7 +6131,7 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="32" t="s">
+      <c r="A246" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B246" s="23" t="s">
@@ -6149,7 +6147,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="32" t="s">
+      <c r="A247" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B247" s="23" t="s">
@@ -6165,7 +6163,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="32" t="s">
+      <c r="A248" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B248" s="23" t="s">
@@ -6181,7 +6179,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="32" t="s">
+      <c r="A249" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B249" s="23" t="s">
@@ -6197,7 +6195,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="32" t="s">
+      <c r="A250" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B250" s="23" t="s">
@@ -6213,7 +6211,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="32" t="s">
+      <c r="A251" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B251" s="23" t="s">
@@ -6229,7 +6227,7 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="32" t="s">
+      <c r="A252" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B252" s="23" t="s">
@@ -6245,7 +6243,7 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="32" t="s">
+      <c r="A253" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B253" s="23" t="s">
@@ -6261,7 +6259,7 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="32" t="s">
+      <c r="A254" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B254" s="23" t="s">
@@ -6277,7 +6275,7 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="32" t="s">
+      <c r="A255" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B255" s="23" t="s">
@@ -6293,7 +6291,7 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="32" t="s">
+      <c r="A256" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B256" s="23" t="s">
@@ -6309,7 +6307,7 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="32" t="s">
+      <c r="A257" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B257" s="23" t="s">
@@ -6325,7 +6323,7 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="32" t="s">
+      <c r="A258" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B258" s="23" t="s">
@@ -6341,7 +6339,7 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="32" t="s">
+      <c r="A259" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B259" s="23" t="s">
@@ -6357,7 +6355,7 @@
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="32" t="s">
+      <c r="A260" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B260" s="23" t="s">
@@ -6373,7 +6371,7 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="32" t="s">
+      <c r="A261" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B261" s="23" t="s">
@@ -6389,7 +6387,7 @@
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="32" t="s">
+      <c r="A262" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B262" s="23" t="s">
@@ -6405,7 +6403,7 @@
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="32" t="s">
+      <c r="A263" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B263" s="23" t="s">
@@ -6421,7 +6419,7 @@
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="32" t="s">
+      <c r="A264" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B264" s="23" t="s">
@@ -6437,7 +6435,7 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="32" t="s">
+      <c r="A265" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B265" s="23" t="s">
@@ -6453,7 +6451,7 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="32" t="s">
+      <c r="A266" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B266" s="23" t="s">
@@ -6469,7 +6467,7 @@
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="32" t="s">
+      <c r="A267" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B267" s="23" t="s">
@@ -6485,30 +6483,30 @@
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="32" t="s">
+      <c r="A268" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="D268" s="23"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="32" t="s">
+      <c r="A269" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D269" s="23"/>
       <c r="E269" s="23"/>
@@ -6517,14 +6515,14 @@
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="32" t="s">
+      <c r="A270" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D270" s="23"/>
       <c r="E270" s="23"/>
@@ -6533,14 +6531,14 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="32" t="s">
+      <c r="A271" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D271" s="23"/>
       <c r="E271" s="23"/>
@@ -6549,30 +6547,30 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="32" t="s">
+      <c r="A272" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D272" s="23"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="32" t="s">
+      <c r="A273" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D273" s="23"/>
       <c r="E273" s="23"/>
@@ -6581,14 +6579,14 @@
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="32" t="s">
+      <c r="A274" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D274" s="23"/>
       <c r="E274" s="23"/>
@@ -6597,14 +6595,14 @@
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="32" t="s">
+      <c r="A275" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D275" s="23"/>
       <c r="E275" s="23"/>
@@ -6613,14 +6611,14 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="32" t="s">
+      <c r="A276" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D276" s="23"/>
       <c r="E276" s="23"/>
@@ -6629,14 +6627,14 @@
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="32" t="s">
+      <c r="A277" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D277" s="23"/>
       <c r="E277" s="23"/>
@@ -6645,14 +6643,14 @@
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="32" t="s">
+      <c r="A278" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D278" s="23"/>
       <c r="E278" s="23"/>
@@ -6661,62 +6659,62 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="32" t="s">
+      <c r="A279" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="D279" s="23"/>
       <c r="E279" s="23"/>
       <c r="F279" s="23" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="32" t="s">
+      <c r="A280" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C280" s="23" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D280" s="23"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="32" t="s">
+      <c r="A281" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="C281" s="23" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="D281" s="23"/>
       <c r="E281" s="23"/>
       <c r="F281" s="23" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="32" t="s">
+      <c r="A282" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D282" s="23"/>
       <c r="E282" s="23"/>
@@ -6725,14 +6723,14 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="32" t="s">
+      <c r="A283" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>261</v>
+        <v>446</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>261</v>
+        <v>446</v>
       </c>
       <c r="D283" s="23"/>
       <c r="E283" s="23"/>
@@ -6741,30 +6739,30 @@
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="32" t="s">
+      <c r="A284" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>446</v>
+        <v>328</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>446</v>
+        <v>328</v>
       </c>
       <c r="D284" s="23"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="32" t="s">
+      <c r="A285" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D285" s="23"/>
       <c r="E285" s="23"/>
@@ -6773,14 +6771,14 @@
       </c>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="32" t="s">
+      <c r="A286" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
@@ -6789,14 +6787,14 @@
       </c>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="32" t="s">
+      <c r="A287" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D287" s="23"/>
       <c r="E287" s="23"/>
@@ -6805,30 +6803,30 @@
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="32" t="s">
+      <c r="A288" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="32" t="s">
+      <c r="A289" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D289" s="23"/>
       <c r="E289" s="23"/>
@@ -6837,30 +6835,30 @@
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="32" t="s">
+      <c r="A290" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="32" t="s">
+      <c r="A291" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
       <c r="C291" s="23" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
       <c r="D291" s="23"/>
       <c r="E291" s="23"/>
@@ -6869,14 +6867,14 @@
       </c>
     </row>
     <row r="292" spans="1:6">
-      <c r="A292" s="32" t="s">
+      <c r="A292" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="C292" s="23" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
@@ -6885,30 +6883,30 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="32" t="s">
+      <c r="A293" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D293" s="23"/>
       <c r="E293" s="23"/>
       <c r="F293" s="23" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="32" t="s">
+      <c r="A294" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
@@ -6917,14 +6915,14 @@
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="32" t="s">
+      <c r="A295" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D295" s="23"/>
       <c r="E295" s="23"/>
@@ -6933,14 +6931,14 @@
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="32" t="s">
+      <c r="A296" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
@@ -6949,14 +6947,14 @@
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="32" t="s">
+      <c r="A297" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D297" s="23"/>
       <c r="E297" s="23"/>
@@ -6965,78 +6963,78 @@
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="32" t="s">
+      <c r="A298" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="32" t="s">
+      <c r="A299" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D299" s="23"/>
       <c r="E299" s="23"/>
       <c r="F299" s="23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="32" t="s">
+      <c r="A300" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
       <c r="F300" s="23" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="32" t="s">
+      <c r="A301" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="D301" s="23"/>
       <c r="E301" s="23"/>
       <c r="F301" s="23" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="32" t="s">
+      <c r="A302" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
@@ -7045,14 +7043,14 @@
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="32" t="s">
+      <c r="A303" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D303" s="23"/>
       <c r="E303" s="23"/>
@@ -7061,46 +7059,46 @@
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="32" t="s">
+      <c r="A304" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>413</v>
+        <v>333</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>413</v>
+        <v>333</v>
       </c>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
       <c r="F304" s="23" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="32" t="s">
+      <c r="A305" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="D305" s="23"/>
       <c r="E305" s="23"/>
       <c r="F305" s="23" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="32" t="s">
+      <c r="A306" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
@@ -7109,14 +7107,14 @@
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="32" t="s">
+      <c r="A307" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="C307" s="23" t="s">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="D307" s="23"/>
       <c r="E307" s="23"/>
@@ -7125,14 +7123,14 @@
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="32" t="s">
+      <c r="A308" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
@@ -7141,46 +7139,46 @@
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="32" t="s">
+      <c r="A309" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>406</v>
+        <v>223</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>406</v>
+        <v>223</v>
       </c>
       <c r="D309" s="23"/>
       <c r="E309" s="23"/>
       <c r="F309" s="23" t="s">
-        <v>78</v>
+        <v>441</v>
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="32" t="s">
+      <c r="A310" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
       <c r="F310" s="23" t="s">
-        <v>441</v>
+        <v>135</v>
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="32" t="s">
+      <c r="A311" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D311" s="23"/>
       <c r="E311" s="23"/>
@@ -7189,14 +7187,14 @@
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="32" t="s">
+      <c r="A312" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
@@ -7205,46 +7203,46 @@
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="32" t="s">
+      <c r="A313" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D313" s="23"/>
       <c r="E313" s="23"/>
       <c r="F313" s="23" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="32" t="s">
+      <c r="A314" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
       <c r="F314" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="32" t="s">
+      <c r="A315" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23"/>
@@ -7253,14 +7251,14 @@
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="32" t="s">
+      <c r="A316" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
@@ -7269,46 +7267,46 @@
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="32" t="s">
+      <c r="A317" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="D317" s="23"/>
       <c r="E317" s="23"/>
       <c r="F317" s="23" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="32" t="s">
+      <c r="A318" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="32" t="s">
+      <c r="A319" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D319" s="23"/>
       <c r="E319" s="23"/>
@@ -7317,14 +7315,14 @@
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="32" t="s">
+      <c r="A320" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
@@ -7333,78 +7331,78 @@
       </c>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" s="32" t="s">
+      <c r="A321" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="D321" s="23"/>
       <c r="E321" s="23"/>
       <c r="F321" s="23" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="32" t="s">
+      <c r="A322" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="32" t="s">
+      <c r="A323" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D323" s="23"/>
       <c r="E323" s="23"/>
       <c r="F323" s="23" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="32" t="s">
+      <c r="A324" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
       <c r="F324" s="23" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="32" t="s">
+      <c r="A325" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D325" s="23"/>
       <c r="E325" s="23"/>
@@ -7413,14 +7411,14 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="32" t="s">
+      <c r="A326" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
@@ -7429,30 +7427,30 @@
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="32" t="s">
+      <c r="A327" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="C327" s="23" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="D327" s="23"/>
       <c r="E327" s="23"/>
       <c r="F327" s="23" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:6">
-      <c r="A328" s="32" t="s">
+      <c r="A328" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
@@ -7461,30 +7459,30 @@
       </c>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="32" t="s">
+      <c r="A329" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="D329" s="23"/>
       <c r="E329" s="23"/>
       <c r="F329" s="23" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="32" t="s">
+      <c r="A330" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C330" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
@@ -7493,14 +7491,14 @@
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="32" t="s">
+      <c r="A331" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C331" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D331" s="23"/>
       <c r="E331" s="23"/>
@@ -7509,14 +7507,14 @@
       </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
@@ -7525,30 +7523,30 @@
       </c>
     </row>
     <row r="333" spans="1:6">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>211</v>
+        <v>429</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>211</v>
+        <v>429</v>
       </c>
       <c r="D333" s="23"/>
       <c r="E333" s="23"/>
       <c r="F333" s="23" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="32" t="s">
+      <c r="A334" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C334" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
@@ -7557,14 +7555,14 @@
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="32" t="s">
+      <c r="A335" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D335" s="23"/>
       <c r="E335" s="23"/>
@@ -7573,14 +7571,14 @@
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="32" t="s">
+      <c r="A336" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C336" s="23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
@@ -7589,14 +7587,14 @@
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="32" t="s">
+      <c r="A337" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D337" s="23"/>
       <c r="E337" s="23"/>
@@ -7605,14 +7603,14 @@
       </c>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="32" t="s">
+      <c r="A338" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
@@ -7621,14 +7619,14 @@
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="32" t="s">
+      <c r="A339" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C339" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D339" s="23"/>
       <c r="E339" s="23"/>
@@ -7637,14 +7635,14 @@
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="32" t="s">
+      <c r="A340" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
@@ -7653,14 +7651,14 @@
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="32" t="s">
+      <c r="A341" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D341" s="23"/>
       <c r="E341" s="23"/>
@@ -7669,14 +7667,14 @@
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="32" t="s">
+      <c r="A342" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
@@ -7685,30 +7683,30 @@
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="32" t="s">
+      <c r="A343" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="D343" s="23"/>
       <c r="E343" s="23"/>
       <c r="F343" s="23" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="32" t="s">
+      <c r="A344" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>277</v>
+        <v>448</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>277</v>
+        <v>448</v>
       </c>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
@@ -7717,14 +7715,14 @@
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="32" t="s">
+      <c r="A345" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>448</v>
+        <v>278</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>448</v>
+        <v>278</v>
       </c>
       <c r="D345" s="23"/>
       <c r="E345" s="23"/>
@@ -7733,30 +7731,30 @@
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="32" t="s">
+      <c r="A346" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="32" t="s">
+      <c r="A347" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D347" s="23"/>
       <c r="E347" s="23"/>
@@ -7765,14 +7763,14 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="32" t="s">
+      <c r="A348" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
@@ -7781,14 +7779,14 @@
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="32" t="s">
+      <c r="A349" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D349" s="23"/>
       <c r="E349" s="23"/>
@@ -7797,14 +7795,14 @@
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="32" t="s">
+      <c r="A350" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
@@ -7813,158 +7811,158 @@
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="32" t="s">
+      <c r="A351" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="D351" s="23"/>
       <c r="E351" s="23"/>
       <c r="F351" s="23" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="32" t="s">
+      <c r="A352" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
       <c r="F352" s="23" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="32" t="s">
+      <c r="A353" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="D353" s="23"/>
       <c r="E353" s="23"/>
       <c r="F353" s="23" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="32" t="s">
+      <c r="A354" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
       <c r="F354" s="23" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="32" t="s">
+      <c r="A355" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="D355" s="23"/>
       <c r="E355" s="23"/>
       <c r="F355" s="23" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="32" t="s">
+      <c r="A356" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="32" t="s">
+      <c r="A357" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="D357" s="23"/>
       <c r="E357" s="23"/>
       <c r="F357" s="23" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="32" t="s">
+      <c r="A358" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="32" t="s">
+      <c r="A359" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="D359" s="23"/>
       <c r="E359" s="23"/>
       <c r="F359" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="32" t="s">
+      <c r="A360" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
@@ -7973,94 +7971,94 @@
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="32" t="s">
+      <c r="A361" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="D361" s="23"/>
       <c r="E361" s="23"/>
       <c r="F361" s="23" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="32" t="s">
+      <c r="A362" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="32" t="s">
+      <c r="A363" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="D363" s="23"/>
       <c r="E363" s="23"/>
       <c r="F363" s="23" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="32" t="s">
+      <c r="A364" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="32" t="s">
+      <c r="A365" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="D365" s="23"/>
       <c r="E365" s="23"/>
       <c r="F365" s="23" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="366" spans="1:6">
-      <c r="A366" s="32" t="s">
+      <c r="A366" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
@@ -8069,126 +8067,126 @@
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="32" t="s">
+      <c r="A367" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="C367" s="23" t="s">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="D367" s="23"/>
       <c r="E367" s="23"/>
       <c r="F367" s="23" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="32" t="s">
+      <c r="A368" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
       <c r="F368" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="369" spans="1:6">
-      <c r="A369" s="32" t="s">
+      <c r="A369" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
       <c r="C369" s="23" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
       <c r="D369" s="23"/>
       <c r="E369" s="23"/>
       <c r="F369" s="23" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:6">
-      <c r="A370" s="32" t="s">
+      <c r="A370" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="C370" s="23" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" s="32" t="s">
+      <c r="A371" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="C371" s="23" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="D371" s="23"/>
       <c r="E371" s="23"/>
       <c r="F371" s="23" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="372" spans="1:6">
-      <c r="A372" s="32" t="s">
+      <c r="A372" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>405</v>
+        <v>141</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>405</v>
+        <v>141</v>
       </c>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="373" spans="1:6">
-      <c r="A373" s="32" t="s">
+      <c r="A373" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="D373" s="23"/>
       <c r="E373" s="23"/>
       <c r="F373" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="374" spans="1:6">
-      <c r="A374" s="32" t="s">
+      <c r="A374" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
@@ -8197,46 +8195,46 @@
       </c>
     </row>
     <row r="375" spans="1:6">
-      <c r="A375" s="32" t="s">
+      <c r="A375" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>302</v>
+        <v>416</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>302</v>
+        <v>416</v>
       </c>
       <c r="D375" s="23"/>
       <c r="E375" s="23"/>
       <c r="F375" s="23" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
     </row>
     <row r="376" spans="1:6">
-      <c r="A376" s="32" t="s">
+      <c r="A376" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="32" t="s">
+      <c r="A377" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D377" s="23"/>
       <c r="E377" s="23"/>
@@ -8245,78 +8243,78 @@
       </c>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="32" t="s">
+      <c r="A378" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="379" spans="1:6">
-      <c r="A379" s="32" t="s">
+      <c r="A379" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B379" s="23" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="C379" s="23" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="D379" s="23"/>
       <c r="E379" s="23"/>
       <c r="F379" s="23" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="380" spans="1:6">
-      <c r="A380" s="32" t="s">
+      <c r="A380" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B380" s="23" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="C380" s="23" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="32" t="s">
+      <c r="A381" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B381" s="23" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="C381" s="23" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="D381" s="23"/>
       <c r="E381" s="23"/>
       <c r="F381" s="23" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" s="32" t="s">
+      <c r="A382" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B382" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
@@ -8325,14 +8323,14 @@
       </c>
     </row>
     <row r="383" spans="1:6">
-      <c r="A383" s="32" t="s">
+      <c r="A383" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D383" s="23"/>
       <c r="E383" s="23"/>
@@ -8341,14 +8339,14 @@
       </c>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" s="32" t="s">
+      <c r="A384" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
@@ -8357,30 +8355,30 @@
       </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="32" t="s">
+      <c r="A385" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="D385" s="23"/>
       <c r="E385" s="23"/>
       <c r="F385" s="23" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" s="32" t="s">
+      <c r="A386" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B386" s="23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
@@ -8389,14 +8387,14 @@
       </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="32" t="s">
+      <c r="A387" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B387" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C387" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D387" s="23"/>
       <c r="E387" s="23"/>
@@ -8405,14 +8403,14 @@
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="32" t="s">
+      <c r="A388" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
@@ -8421,30 +8419,30 @@
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="A389" s="32" t="s">
+      <c r="A389" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B389" s="23" t="s">
-        <v>354</v>
+        <v>107</v>
       </c>
       <c r="C389" s="23" t="s">
-        <v>354</v>
+        <v>107</v>
       </c>
       <c r="D389" s="23"/>
       <c r="E389" s="23"/>
       <c r="F389" s="23" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" s="32" t="s">
+      <c r="A390" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="C390" s="23" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
@@ -8453,30 +8451,30 @@
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="32" t="s">
+      <c r="A391" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B391" s="23" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C391" s="23" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="D391" s="23"/>
       <c r="E391" s="23"/>
       <c r="F391" s="23" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="32" t="s">
+      <c r="A392" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C392" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
@@ -8485,46 +8483,46 @@
       </c>
     </row>
     <row r="393" spans="1:6">
-      <c r="A393" s="32" t="s">
+      <c r="A393" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="C393" s="23" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="D393" s="23"/>
       <c r="E393" s="23"/>
       <c r="F393" s="23" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
     </row>
     <row r="394" spans="1:6">
-      <c r="A394" s="32" t="s">
+      <c r="A394" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B394" s="23" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="C394" s="23" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" s="32" t="s">
+      <c r="A395" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B395" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C395" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D395" s="23"/>
       <c r="E395" s="23"/>
@@ -8533,14 +8531,14 @@
       </c>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" s="32" t="s">
+      <c r="A396" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B396" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C396" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
@@ -8549,14 +8547,14 @@
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="32" t="s">
+      <c r="A397" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B397" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C397" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D397" s="23"/>
       <c r="E397" s="23"/>
@@ -8565,30 +8563,30 @@
       </c>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="32" t="s">
+      <c r="A398" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B398" s="23" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="C398" s="23" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="32" t="s">
+      <c r="A399" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B399" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C399" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D399" s="23"/>
       <c r="E399" s="23"/>
@@ -8597,14 +8595,14 @@
       </c>
     </row>
     <row r="400" spans="1:6">
-      <c r="A400" s="32" t="s">
+      <c r="A400" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B400" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C400" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
@@ -8613,30 +8611,30 @@
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="32" t="s">
+      <c r="A401" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="D401" s="23"/>
       <c r="E401" s="23"/>
       <c r="F401" s="23" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="32" t="s">
+      <c r="A402" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B402" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C402" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
@@ -8645,14 +8643,14 @@
       </c>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" s="32" t="s">
+      <c r="A403" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B403" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C403" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D403" s="23"/>
       <c r="E403" s="23"/>
@@ -8661,14 +8659,14 @@
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="32" t="s">
+      <c r="A404" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B404" s="23" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="C404" s="23" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
@@ -8677,62 +8675,62 @@
       </c>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="32" t="s">
+      <c r="A405" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B405" s="23" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="C405" s="23" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="D405" s="23"/>
       <c r="E405" s="23"/>
       <c r="F405" s="23" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" s="32" t="s">
+      <c r="A406" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B406" s="23" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C406" s="23" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
       <c r="F406" s="23" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="407" spans="1:6">
-      <c r="A407" s="32" t="s">
+      <c r="A407" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B407" s="23" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="C407" s="23" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D407" s="23"/>
       <c r="E407" s="23"/>
       <c r="F407" s="23" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="32" t="s">
+      <c r="A408" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B408" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C408" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
@@ -8741,46 +8739,46 @@
       </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="32" t="s">
+      <c r="A409" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B409" s="23" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="C409" s="23" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="D409" s="23"/>
       <c r="E409" s="23"/>
       <c r="F409" s="23" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:6">
-      <c r="A410" s="32" t="s">
+      <c r="A410" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="C410" s="23" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
       <c r="F410" s="23" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
     </row>
     <row r="411" spans="1:6">
-      <c r="A411" s="32" t="s">
+      <c r="A411" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B411" s="23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C411" s="23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D411" s="23"/>
       <c r="E411" s="23"/>
@@ -8789,14 +8787,14 @@
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="32" t="s">
+      <c r="A412" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="C412" s="23" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
@@ -8805,142 +8803,142 @@
       </c>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" s="32" t="s">
+      <c r="A413" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B413" s="23" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="C413" s="23" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D413" s="23"/>
       <c r="E413" s="23"/>
       <c r="F413" s="23" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="414" spans="1:6">
-      <c r="A414" s="32" t="s">
+      <c r="A414" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B414" s="23" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="C414" s="23" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
       <c r="F414" s="23" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:6">
-      <c r="A415" s="32" t="s">
+      <c r="A415" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B415" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C415" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D415" s="23"/>
       <c r="E415" s="23"/>
       <c r="F415" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="416" spans="1:6">
-      <c r="A416" s="32" t="s">
+      <c r="A416" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C416" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="32" t="s">
+      <c r="A417" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B417" s="23" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="C417" s="23" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="D417" s="23"/>
       <c r="E417" s="23"/>
       <c r="F417" s="23" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="418" spans="1:6">
-      <c r="A418" s="32" t="s">
+      <c r="A418" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="C418" s="23" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
       <c r="F418" s="23" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="419" spans="1:6">
-      <c r="A419" s="32" t="s">
+      <c r="A419" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C419" s="23" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="D419" s="23"/>
       <c r="E419" s="23"/>
       <c r="F419" s="23" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
     </row>
     <row r="420" spans="1:6">
-      <c r="A420" s="32" t="s">
+      <c r="A420" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="C420" s="23" t="s">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
       <c r="F420" s="23" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="421" spans="1:6">
-      <c r="A421" s="32" t="s">
+      <c r="A421" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C421" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D421" s="23"/>
       <c r="E421" s="23"/>
@@ -8949,34 +8947,18 @@
       </c>
     </row>
     <row r="422" spans="1:6">
-      <c r="A422" s="32" t="s">
+      <c r="A422" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
       <c r="F422" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="B423" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C423" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D423" s="23"/>
-      <c r="E423" s="23"/>
-      <c r="F423" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9100,28 +9082,28 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>72</v>
       </c>
       <c r="N2" s="19" t="s">
@@ -9138,19 +9120,19 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>425</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -9176,19 +9158,19 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>426</v>
       </c>
       <c r="I4" s="18" t="s">
@@ -9214,19 +9196,19 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>427</v>
       </c>
       <c r="K5" s="18" t="s">
@@ -9249,19 +9231,19 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>428</v>
       </c>
       <c r="K6" s="18" t="s">
@@ -9284,19 +9266,19 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>429</v>
       </c>
       <c r="K7" s="18" t="s">
@@ -9319,19 +9301,19 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>430</v>
       </c>
       <c r="K8" s="18" t="s">
@@ -9354,19 +9336,19 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>431</v>
       </c>
       <c r="K9" s="18" t="s">
@@ -9389,19 +9371,19 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>432</v>
       </c>
       <c r="K10" s="18" t="s">
@@ -9424,19 +9406,19 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>433</v>
       </c>
       <c r="K11" s="18" t="s">
@@ -9459,19 +9441,19 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>434</v>
       </c>
       <c r="K12" s="18" t="s">
@@ -9494,19 +9476,19 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>435</v>
       </c>
       <c r="K13" s="18" t="s">
@@ -9529,7 +9511,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -9564,7 +9546,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <v>2</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -9595,7 +9577,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <v>3</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -9624,7 +9606,7 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="31">
+      <c r="A17" s="29">
         <v>4</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -9653,7 +9635,7 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="31">
+      <c r="A18" s="29">
         <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -9682,7 +9664,7 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="31">
+      <c r="A19" s="29">
         <v>6</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -9711,7 +9693,7 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="31">
+      <c r="A20" s="29">
         <v>7</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -9740,7 +9722,7 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="31">
+      <c r="A21" s="29">
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -9769,7 +9751,7 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="31">
+      <c r="A22" s="29">
         <v>9</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -9798,7 +9780,7 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="31">
+      <c r="A23" s="29">
         <v>10</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -9827,7 +9809,7 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="31">
+      <c r="A24" s="29">
         <v>11</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -9856,7 +9838,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="31">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -9885,7 +9867,7 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="31">
+      <c r="A26" s="29">
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -9914,7 +9896,7 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="31">
+      <c r="A27" s="29">
         <v>14</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -9943,7 +9925,7 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <v>15</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -9972,7 +9954,7 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="31">
+      <c r="A29" s="29">
         <v>16</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -10001,7 +9983,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="31">
+      <c r="A30" s="29">
         <v>17</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -10030,7 +10012,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="31">
+      <c r="A31" s="29">
         <v>18</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -10059,7 +10041,7 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <v>19</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -10088,7 +10070,7 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="31">
+      <c r="A33" s="29">
         <v>20</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -10117,7 +10099,7 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="31">
+      <c r="A34" s="29">
         <v>21</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -10146,7 +10128,7 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="31">
+      <c r="A35" s="29">
         <v>22</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -10175,7 +10157,7 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="31">
+      <c r="A36" s="29">
         <v>23</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -10204,7 +10186,7 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="31">
+      <c r="A37" s="29">
         <v>24</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -10233,7 +10215,7 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="31">
+      <c r="A38" s="29">
         <v>25</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -10262,7 +10244,7 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="31">
+      <c r="A39" s="29">
         <v>26</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -10291,7 +10273,7 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="31">
+      <c r="A40" s="29">
         <v>27</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -10320,7 +10302,7 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="31">
+      <c r="A41" s="29">
         <v>28</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -10349,7 +10331,7 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="31">
+      <c r="A42" s="29">
         <v>29</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -10378,7 +10360,7 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="31">
+      <c r="A43" s="29">
         <v>30</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -10407,7 +10389,7 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="31">
+      <c r="A44" s="29">
         <v>31</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -10436,7 +10418,7 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="31">
+      <c r="A45" s="29">
         <v>32</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -10465,7 +10447,7 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="31">
+      <c r="A46" s="29">
         <v>33</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -10494,7 +10476,7 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="31">
+      <c r="A47" s="29">
         <v>34</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -10523,7 +10505,7 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="31">
+      <c r="A48" s="29">
         <v>35</v>
       </c>
       <c r="B48" s="18" t="s">
@@ -10552,7 +10534,7 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="31">
+      <c r="A49" s="29">
         <v>36</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -10581,7 +10563,7 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="31">
+      <c r="A50" s="29">
         <v>37</v>
       </c>
       <c r="B50" s="18" t="s">
@@ -10610,7 +10592,7 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="31">
+      <c r="A51" s="29">
         <v>38</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -10639,7 +10621,7 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="31">
+      <c r="A52" s="29">
         <v>39</v>
       </c>
       <c r="B52" s="18" t="s">
@@ -10668,7 +10650,7 @@
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="31">
+      <c r="A53" s="29">
         <v>40</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -10697,7 +10679,7 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="31">
+      <c r="A54" s="29">
         <v>41</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -10726,7 +10708,7 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="31">
+      <c r="A55" s="29">
         <v>42</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -10755,7 +10737,7 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="31">
+      <c r="A56" s="29">
         <v>43</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -10784,7 +10766,7 @@
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="31">
+      <c r="A57" s="29">
         <v>44</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -10813,7 +10795,7 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="31">
+      <c r="A58" s="29">
         <v>45</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -10842,7 +10824,7 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="31">
+      <c r="A59" s="29">
         <v>46</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -10871,7 +10853,7 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="31">
+      <c r="A60" s="29">
         <v>47</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -10900,7 +10882,7 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="31">
+      <c r="A61" s="29">
         <v>48</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -10929,7 +10911,7 @@
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="31">
+      <c r="A62" s="29">
         <v>49</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -10958,7 +10940,7 @@
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="31">
+      <c r="A63" s="29">
         <v>50</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -10987,7 +10969,7 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="31">
+      <c r="A64" s="29">
         <v>51</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -11016,7 +10998,7 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="31">
+      <c r="A65" s="29">
         <v>52</v>
       </c>
       <c r="B65" s="18" t="s">
@@ -11045,7 +11027,7 @@
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="31">
+      <c r="A66" s="29">
         <v>53</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -11074,7 +11056,7 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="31">
+      <c r="A67" s="29">
         <v>54</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -11103,7 +11085,7 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="31">
+      <c r="A68" s="29">
         <v>55</v>
       </c>
       <c r="B68" s="18" t="s">
@@ -11132,7 +11114,7 @@
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="31">
+      <c r="A69" s="29">
         <v>56</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -11161,7 +11143,7 @@
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="31">
+      <c r="A70" s="29">
         <v>57</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -11190,7 +11172,7 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="31">
+      <c r="A71" s="29">
         <v>58</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -11219,7 +11201,7 @@
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="31">
+      <c r="A72" s="29">
         <v>59</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -11248,7 +11230,7 @@
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="31">
+      <c r="A73" s="29">
         <v>60</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -11277,7 +11259,7 @@
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="31">
+      <c r="A74" s="29">
         <v>61</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -11306,7 +11288,7 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="31">
+      <c r="A75" s="29">
         <v>62</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -11335,7 +11317,7 @@
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="31">
+      <c r="A76" s="29">
         <v>63</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -11364,7 +11346,7 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="31">
+      <c r="A77" s="29">
         <v>64</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -11393,7 +11375,7 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="31">
+      <c r="A78" s="29">
         <v>65</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -11422,7 +11404,7 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="31">
+      <c r="A79" s="29">
         <v>66</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -11451,7 +11433,7 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="31">
+      <c r="A80" s="29">
         <v>67</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -11480,7 +11462,7 @@
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="31">
+      <c r="A81" s="29">
         <v>68</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -11509,7 +11491,7 @@
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="31">
+      <c r="A82" s="29">
         <v>69</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -11538,7 +11520,7 @@
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="31">
+      <c r="A83" s="29">
         <v>70</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -11567,7 +11549,7 @@
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="31">
+      <c r="A84" s="29">
         <v>71</v>
       </c>
       <c r="B84" s="18" t="s">
@@ -11596,7 +11578,7 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="31">
+      <c r="A85" s="29">
         <v>72</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -11625,7 +11607,7 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="31">
+      <c r="A86" s="29">
         <v>73</v>
       </c>
       <c r="B86" s="18" t="s">
@@ -11654,7 +11636,7 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="31">
+      <c r="A87" s="29">
         <v>74</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -11683,7 +11665,7 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="31">
+      <c r="A88" s="29">
         <v>75</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -11712,7 +11694,7 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="31">
+      <c r="A89" s="29">
         <v>76</v>
       </c>
       <c r="B89" s="18" t="s">
@@ -11741,7 +11723,7 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="31">
+      <c r="A90" s="29">
         <v>77</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -11770,7 +11752,7 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="31">
+      <c r="A91" s="29">
         <v>78</v>
       </c>
       <c r="B91" s="18" t="s">
@@ -11799,7 +11781,7 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="31">
+      <c r="A92" s="29">
         <v>79</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -11828,7 +11810,7 @@
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="31">
+      <c r="A93" s="29">
         <v>80</v>
       </c>
       <c r="B93" s="18" t="s">
@@ -11857,7 +11839,7 @@
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="31">
+      <c r="A94" s="29">
         <v>81</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -11886,7 +11868,7 @@
       </c>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="31">
+      <c r="A95" s="29">
         <v>82</v>
       </c>
       <c r="B95" s="18" t="s">
@@ -11915,7 +11897,7 @@
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="31">
+      <c r="A96" s="29">
         <v>83</v>
       </c>
       <c r="B96" s="18" t="s">
@@ -11944,7 +11926,7 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="31">
+      <c r="A97" s="29">
         <v>84</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -11973,7 +11955,7 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="31">
+      <c r="A98" s="29">
         <v>85</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -12002,7 +11984,7 @@
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="31">
+      <c r="A99" s="29">
         <v>86</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -12031,7 +12013,7 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="31">
+      <c r="A100" s="29">
         <v>87</v>
       </c>
       <c r="B100" s="18" t="s">
@@ -12060,7 +12042,7 @@
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="31">
+      <c r="A101" s="29">
         <v>88</v>
       </c>
       <c r="B101" s="18" t="s">
@@ -12089,7 +12071,7 @@
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="31">
+      <c r="A102" s="29">
         <v>89</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -12118,7 +12100,7 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="31">
+      <c r="A103" s="29">
         <v>90</v>
       </c>
       <c r="B103" s="18" t="s">
@@ -12147,7 +12129,7 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="31">
+      <c r="A104" s="29">
         <v>91</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -12176,7 +12158,7 @@
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="31">
+      <c r="A105" s="29">
         <v>92</v>
       </c>
       <c r="B105" s="18" t="s">
@@ -12205,7 +12187,7 @@
       </c>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="31">
+      <c r="A106" s="29">
         <v>93</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -12226,15 +12208,15 @@
       <c r="O106" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="Q106" s="25" t="s">
+      <c r="Q106" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="R106" s="24" t="s">
+      <c r="R106" s="18" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="31">
+      <c r="A107" s="29">
         <v>94</v>
       </c>
       <c r="B107" s="18" t="s">
@@ -12255,15 +12237,15 @@
       <c r="O107" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="Q107" s="25" t="s">
+      <c r="Q107" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="R107" s="25" t="s">
+      <c r="R107" s="23" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="31">
+      <c r="A108" s="29">
         <v>95</v>
       </c>
       <c r="B108" s="18" t="s">
@@ -12284,15 +12266,15 @@
       <c r="O108" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="Q108" s="25" t="s">
+      <c r="Q108" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="R108" s="25" t="s">
+      <c r="R108" s="23" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="31">
+      <c r="A109" s="29">
         <v>96</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -12321,7 +12303,7 @@
       </c>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="31">
+      <c r="A110" s="29">
         <v>97</v>
       </c>
       <c r="B110" s="18" t="s">
@@ -12350,7 +12332,7 @@
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="31">
+      <c r="A111" s="29">
         <v>98</v>
       </c>
       <c r="B111" s="18" t="s">
@@ -12379,7 +12361,7 @@
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="31">
+      <c r="A112" s="29">
         <v>99</v>
       </c>
       <c r="B112" s="18" t="s">
@@ -12408,7 +12390,7 @@
       </c>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="31">
+      <c r="A113" s="29">
         <v>100</v>
       </c>
       <c r="B113" s="18" t="s">
@@ -12437,7 +12419,7 @@
       </c>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="31">
+      <c r="A114" s="29">
         <v>101</v>
       </c>
       <c r="B114" s="18" t="s">
@@ -12466,7 +12448,7 @@
       </c>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="31">
+      <c r="A115" s="29">
         <v>102</v>
       </c>
       <c r="B115" s="18" t="s">
@@ -12495,7 +12477,7 @@
       </c>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="31">
+      <c r="A116" s="29">
         <v>103</v>
       </c>
       <c r="B116" s="18" t="s">
@@ -12524,7 +12506,7 @@
       </c>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="31">
+      <c r="A117" s="29">
         <v>104</v>
       </c>
       <c r="B117" s="18" t="s">
@@ -12553,7 +12535,7 @@
       </c>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" s="31">
+      <c r="A118" s="29">
         <v>105</v>
       </c>
       <c r="B118" s="18" t="s">
@@ -12582,7 +12564,7 @@
       </c>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="31">
+      <c r="A119" s="29">
         <v>106</v>
       </c>
       <c r="B119" s="18" t="s">
@@ -12611,7 +12593,7 @@
       </c>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="31">
+      <c r="A120" s="29">
         <v>107</v>
       </c>
       <c r="B120" s="18" t="s">
@@ -12640,7 +12622,7 @@
       </c>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="31">
+      <c r="A121" s="29">
         <v>108</v>
       </c>
       <c r="B121" s="18" t="s">
@@ -13090,10 +13072,10 @@
       <c r="E136" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N136" s="25" t="s">
+      <c r="N136" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="O136" s="25" t="s">
+      <c r="O136" s="23" t="s">
         <v>207</v>
       </c>
       <c r="Q136" s="19" t="s">
@@ -13119,10 +13101,10 @@
       <c r="E137" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="N137" s="25" t="s">
+      <c r="N137" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="O137" s="25" t="s">
+      <c r="O137" s="23" t="s">
         <v>206</v>
       </c>
       <c r="Q137" s="19" t="s">
@@ -13976,10 +13958,10 @@
       <c r="E174" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="Q174" s="25" t="s">
+      <c r="Q174" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R174" s="25" t="s">
+      <c r="R174" s="23" t="s">
         <v>429</v>
       </c>
     </row>
@@ -13999,10 +13981,10 @@
       <c r="E175" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="Q175" s="25" t="s">
+      <c r="Q175" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R175" s="25" t="s">
+      <c r="R175" s="23" t="s">
         <v>430</v>
       </c>
     </row>
@@ -14022,10 +14004,10 @@
       <c r="E176" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="Q176" s="25" t="s">
+      <c r="Q176" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R176" s="25" t="s">
+      <c r="R176" s="23" t="s">
         <v>431</v>
       </c>
     </row>
@@ -14045,10 +14027,10 @@
       <c r="E177" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="Q177" s="25" t="s">
+      <c r="Q177" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R177" s="25" t="s">
+      <c r="R177" s="23" t="s">
         <v>425</v>
       </c>
     </row>
@@ -14068,10 +14050,10 @@
       <c r="E178" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="Q178" s="25" t="s">
+      <c r="Q178" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R178" s="25" t="s">
+      <c r="R178" s="23" t="s">
         <v>424</v>
       </c>
     </row>
@@ -14091,10 +14073,10 @@
       <c r="E179" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="Q179" s="25" t="s">
+      <c r="Q179" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R179" s="25" t="s">
+      <c r="R179" s="23" t="s">
         <v>426</v>
       </c>
     </row>
@@ -14114,10 +14096,10 @@
       <c r="E180" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="Q180" s="25" t="s">
+      <c r="Q180" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R180" s="25" t="s">
+      <c r="R180" s="23" t="s">
         <v>427</v>
       </c>
     </row>
@@ -14137,10 +14119,10 @@
       <c r="E181" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="Q181" s="25" t="s">
+      <c r="Q181" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R181" s="25" t="s">
+      <c r="R181" s="23" t="s">
         <v>428</v>
       </c>
     </row>
@@ -14160,10 +14142,10 @@
       <c r="E182" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="Q182" s="25" t="s">
+      <c r="Q182" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R182" s="25" t="s">
+      <c r="R182" s="23" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14183,10 +14165,10 @@
       <c r="E183" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="Q183" s="25" t="s">
+      <c r="Q183" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R183" s="25" t="s">
+      <c r="R183" s="23" t="s">
         <v>433</v>
       </c>
     </row>
